--- a/message_models/xlsx/SampleData_v4.xlsx
+++ b/message_models/xlsx/SampleData_v4.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="203">
   <si>
     <t xml:space="preserve">verb</t>
   </si>
@@ -391,6 +391,9 @@
     <t xml:space="preserve">bdz</t>
   </si>
   <si>
+    <t xml:space="preserve">DE </t>
+  </si>
+  <si>
     <t xml:space="preserve">measurement</t>
   </si>
   <si>
@@ -401,9 +404,6 @@
   </si>
   <si>
     <t xml:space="preserve">BE, FR, NL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE </t>
   </si>
   <si>
     <t xml:space="preserve">IT1, IT2, IT3, IT4, IT5, IT6, IT7</t>
@@ -1329,9 +1329,9 @@
   <dimension ref="A1:Z240"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I62" activeCellId="0" sqref="I62"/>
+      <selection pane="bottomLeft" activeCell="H98" activeCellId="0" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1354,7 +1354,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="32.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="19.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="1" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="24.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="19.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="13.02"/>
@@ -4492,7 +4492,9 @@
       </c>
       <c r="F86" s="35"/>
       <c r="G86" s="35"/>
-      <c r="H86" s="38"/>
+      <c r="H86" s="38" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="27" t="s">
@@ -4503,7 +4505,7 @@
       </c>
       <c r="C87" s="39"/>
       <c r="D87" s="39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87" s="37" t="s">
         <v>92</v>
@@ -4523,7 +4525,7 @@
       </c>
       <c r="C88" s="39"/>
       <c r="D88" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88" s="37" t="s">
         <v>93</v>
@@ -4531,7 +4533,7 @@
       <c r="F88" s="35"/>
       <c r="G88" s="35"/>
       <c r="H88" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4551,7 +4553,7 @@
       <c r="F89" s="35"/>
       <c r="G89" s="35"/>
       <c r="H89" s="38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4563,7 +4565,7 @@
       </c>
       <c r="C90" s="39"/>
       <c r="D90" s="39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E90" s="37" t="s">
         <v>93</v>
@@ -4583,7 +4585,7 @@
       </c>
       <c r="C91" s="39"/>
       <c r="D91" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E91" s="37" t="s">
         <v>94</v>
@@ -4610,7 +4612,9 @@
       </c>
       <c r="F92" s="35"/>
       <c r="G92" s="35"/>
-      <c r="H92" s="38"/>
+      <c r="H92" s="38" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="27" t="s">
@@ -4621,7 +4625,7 @@
       </c>
       <c r="C93" s="39"/>
       <c r="D93" s="39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E93" s="37" t="s">
         <v>94</v>
@@ -4641,7 +4645,7 @@
       </c>
       <c r="C94" s="39"/>
       <c r="D94" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E94" s="37" t="s">
         <v>95</v>
@@ -4649,7 +4653,7 @@
       <c r="F94" s="35"/>
       <c r="G94" s="35"/>
       <c r="H94" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4669,7 +4673,7 @@
       <c r="F95" s="35"/>
       <c r="G95" s="35"/>
       <c r="H95" s="38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4681,7 +4685,7 @@
       </c>
       <c r="C96" s="39"/>
       <c r="D96" s="39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E96" s="37" t="s">
         <v>95</v>
@@ -4701,7 +4705,7 @@
       </c>
       <c r="C97" s="39"/>
       <c r="D97" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E97" s="37" t="s">
         <v>96</v>
@@ -4728,7 +4732,9 @@
       </c>
       <c r="F98" s="35"/>
       <c r="G98" s="35"/>
-      <c r="H98" s="38"/>
+      <c r="H98" s="38" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="27" t="s">
@@ -4739,7 +4745,7 @@
       </c>
       <c r="C99" s="39"/>
       <c r="D99" s="39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E99" s="37" t="s">
         <v>96</v>
@@ -4759,7 +4765,7 @@
       </c>
       <c r="C100" s="39"/>
       <c r="D100" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E100" s="37" t="s">
         <v>97</v>
@@ -4767,7 +4773,7 @@
       <c r="F100" s="35"/>
       <c r="G100" s="35"/>
       <c r="H100" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4787,7 +4793,7 @@
       <c r="F101" s="35"/>
       <c r="G101" s="35"/>
       <c r="H101" s="38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4799,7 +4805,7 @@
       </c>
       <c r="C102" s="39"/>
       <c r="D102" s="39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E102" s="37" t="s">
         <v>97</v>
@@ -4819,7 +4825,7 @@
       </c>
       <c r="C103" s="39"/>
       <c r="D103" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E103" s="37" t="s">
         <v>98</v>
@@ -4846,7 +4852,9 @@
       </c>
       <c r="F104" s="35"/>
       <c r="G104" s="35"/>
-      <c r="H104" s="38"/>
+      <c r="H104" s="38" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="27" t="s">
@@ -4857,7 +4865,7 @@
       </c>
       <c r="C105" s="39"/>
       <c r="D105" s="39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E105" s="37" t="s">
         <v>98</v>
@@ -4877,7 +4885,7 @@
       </c>
       <c r="C106" s="39"/>
       <c r="D106" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E106" s="37" t="s">
         <v>99</v>
@@ -4885,7 +4893,7 @@
       <c r="F106" s="35"/>
       <c r="G106" s="35"/>
       <c r="H106" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4905,7 +4913,7 @@
       <c r="F107" s="35"/>
       <c r="G107" s="35"/>
       <c r="H107" s="38" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4917,7 +4925,7 @@
       </c>
       <c r="C108" s="39"/>
       <c r="D108" s="39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E108" s="37" t="s">
         <v>99</v>
@@ -4937,7 +4945,7 @@
       </c>
       <c r="C109" s="39"/>
       <c r="D109" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E109" s="37" t="s">
         <v>100</v>
@@ -4964,7 +4972,9 @@
       </c>
       <c r="F110" s="35"/>
       <c r="G110" s="35"/>
-      <c r="H110" s="38"/>
+      <c r="H110" s="38" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="27" t="s">
@@ -4975,7 +4985,7 @@
       </c>
       <c r="C111" s="39"/>
       <c r="D111" s="39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E111" s="37" t="s">
         <v>100</v>
@@ -4995,7 +5005,7 @@
       </c>
       <c r="C112" s="39"/>
       <c r="D112" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E112" s="37" t="s">
         <v>101</v>
@@ -5003,7 +5013,7 @@
       <c r="F112" s="35"/>
       <c r="G112" s="35"/>
       <c r="H112" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5023,7 +5033,7 @@
       <c r="F113" s="35"/>
       <c r="G113" s="35"/>
       <c r="H113" s="38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5035,7 +5045,7 @@
       </c>
       <c r="C114" s="39"/>
       <c r="D114" s="39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E114" s="37" t="s">
         <v>101</v>
@@ -5055,7 +5065,7 @@
       </c>
       <c r="C115" s="39"/>
       <c r="D115" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E115" s="37" t="s">
         <v>102</v>
@@ -5082,7 +5092,9 @@
       </c>
       <c r="F116" s="35"/>
       <c r="G116" s="35"/>
-      <c r="H116" s="38"/>
+      <c r="H116" s="38" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="27" t="s">
@@ -5093,7 +5105,7 @@
       </c>
       <c r="C117" s="39"/>
       <c r="D117" s="39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E117" s="37" t="s">
         <v>102</v>
@@ -5113,7 +5125,7 @@
       </c>
       <c r="C118" s="39"/>
       <c r="D118" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E118" s="37" t="s">
         <v>103</v>
@@ -5121,7 +5133,7 @@
       <c r="F118" s="35"/>
       <c r="G118" s="35"/>
       <c r="H118" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5141,7 +5153,7 @@
       <c r="F119" s="35"/>
       <c r="G119" s="35"/>
       <c r="H119" s="38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5153,7 +5165,7 @@
       </c>
       <c r="C120" s="39"/>
       <c r="D120" s="39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E120" s="37" t="s">
         <v>103</v>
@@ -5173,7 +5185,7 @@
       </c>
       <c r="C121" s="39"/>
       <c r="D121" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E121" s="37" t="s">
         <v>104</v>
@@ -5200,7 +5212,9 @@
       </c>
       <c r="F122" s="35"/>
       <c r="G122" s="35"/>
-      <c r="H122" s="38"/>
+      <c r="H122" s="38" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="27" t="s">
@@ -5211,7 +5225,7 @@
       </c>
       <c r="C123" s="39"/>
       <c r="D123" s="39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E123" s="37" t="s">
         <v>104</v>
@@ -5231,7 +5245,7 @@
       </c>
       <c r="C124" s="39"/>
       <c r="D124" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E124" s="37" t="s">
         <v>105</v>
@@ -5239,7 +5253,7 @@
       <c r="F124" s="35"/>
       <c r="G124" s="35"/>
       <c r="H124" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5271,7 +5285,7 @@
       </c>
       <c r="C126" s="39"/>
       <c r="D126" s="39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E126" s="37" t="s">
         <v>105</v>
@@ -5291,7 +5305,7 @@
       </c>
       <c r="C127" s="39"/>
       <c r="D127" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E127" s="37" t="s">
         <v>106</v>
@@ -5318,7 +5332,9 @@
       </c>
       <c r="F128" s="35"/>
       <c r="G128" s="35"/>
-      <c r="H128" s="38"/>
+      <c r="H128" s="38" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="27" t="s">
@@ -5329,7 +5345,7 @@
       </c>
       <c r="C129" s="39"/>
       <c r="D129" s="39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E129" s="37" t="s">
         <v>106</v>
@@ -5349,7 +5365,7 @@
       </c>
       <c r="C130" s="39"/>
       <c r="D130" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E130" s="37" t="s">
         <v>107</v>
@@ -5357,7 +5373,7 @@
       <c r="F130" s="35"/>
       <c r="G130" s="35"/>
       <c r="H130" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5377,7 +5393,7 @@
       <c r="F131" s="35"/>
       <c r="G131" s="35"/>
       <c r="H131" s="38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5389,7 +5405,7 @@
       </c>
       <c r="C132" s="39"/>
       <c r="D132" s="39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E132" s="37" t="s">
         <v>107</v>
@@ -5409,7 +5425,7 @@
       </c>
       <c r="C133" s="39"/>
       <c r="D133" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E133" s="37" t="s">
         <v>108</v>
@@ -5436,7 +5452,9 @@
       </c>
       <c r="F134" s="35"/>
       <c r="G134" s="35"/>
-      <c r="H134" s="38"/>
+      <c r="H134" s="38" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="27" t="s">
@@ -5447,7 +5465,7 @@
       </c>
       <c r="C135" s="39"/>
       <c r="D135" s="39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E135" s="37" t="s">
         <v>108</v>
@@ -5467,7 +5485,7 @@
       </c>
       <c r="C136" s="39"/>
       <c r="D136" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E136" s="37" t="s">
         <v>109</v>
@@ -5475,7 +5493,7 @@
       <c r="F136" s="35"/>
       <c r="G136" s="35"/>
       <c r="H136" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5495,7 +5513,7 @@
       <c r="F137" s="35"/>
       <c r="G137" s="35"/>
       <c r="H137" s="38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5507,7 +5525,7 @@
       </c>
       <c r="C138" s="39"/>
       <c r="D138" s="39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E138" s="37" t="s">
         <v>109</v>
@@ -5527,7 +5545,7 @@
       </c>
       <c r="C139" s="39"/>
       <c r="D139" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E139" s="37" t="s">
         <v>110</v>
@@ -5535,7 +5553,7 @@
       <c r="F139" s="35"/>
       <c r="G139" s="35"/>
       <c r="H139" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5567,7 +5585,7 @@
       </c>
       <c r="C141" s="39"/>
       <c r="D141" s="39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E141" s="37" t="s">
         <v>110</v>
@@ -5587,7 +5605,7 @@
       </c>
       <c r="C142" s="39"/>
       <c r="D142" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E142" s="37" t="s">
         <v>111</v>
@@ -5595,7 +5613,7 @@
       <c r="F142" s="35"/>
       <c r="G142" s="35"/>
       <c r="H142" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5627,7 +5645,7 @@
       </c>
       <c r="C144" s="39"/>
       <c r="D144" s="39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E144" s="37" t="s">
         <v>111</v>
@@ -5647,7 +5665,7 @@
       </c>
       <c r="C145" s="39"/>
       <c r="D145" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E145" s="37" t="s">
         <v>112</v>
@@ -5655,7 +5673,7 @@
       <c r="F145" s="35"/>
       <c r="G145" s="35"/>
       <c r="H145" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5687,7 +5705,7 @@
       </c>
       <c r="C147" s="39"/>
       <c r="D147" s="39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E147" s="37" t="s">
         <v>112</v>
@@ -5707,7 +5725,7 @@
       </c>
       <c r="C148" s="39"/>
       <c r="D148" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E148" s="37" t="s">
         <v>113</v>
@@ -5715,7 +5733,7 @@
       <c r="F148" s="35"/>
       <c r="G148" s="35"/>
       <c r="H148" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5735,7 +5753,7 @@
       <c r="F149" s="35"/>
       <c r="G149" s="35"/>
       <c r="H149" s="38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5747,7 +5765,7 @@
       </c>
       <c r="C150" s="39"/>
       <c r="D150" s="39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E150" s="37" t="s">
         <v>113</v>
@@ -5767,7 +5785,7 @@
       </c>
       <c r="C151" s="39"/>
       <c r="D151" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E151" s="37" t="s">
         <v>114</v>
@@ -5794,7 +5812,9 @@
       </c>
       <c r="F152" s="35"/>
       <c r="G152" s="35"/>
-      <c r="H152" s="38"/>
+      <c r="H152" s="38" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="27" t="s">
@@ -5805,7 +5825,7 @@
       </c>
       <c r="C153" s="39"/>
       <c r="D153" s="39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E153" s="37" t="s">
         <v>114</v>
@@ -5825,7 +5845,7 @@
       </c>
       <c r="C154" s="39"/>
       <c r="D154" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E154" s="37" t="s">
         <v>115</v>
@@ -5852,7 +5872,9 @@
       </c>
       <c r="F155" s="35"/>
       <c r="G155" s="35"/>
-      <c r="H155" s="38"/>
+      <c r="H155" s="38" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="29" t="s">
@@ -5863,7 +5885,7 @@
       </c>
       <c r="C156" s="46"/>
       <c r="D156" s="46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E156" s="47" t="s">
         <v>115</v>
